--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.407607666666666</v>
+        <v>7.974945333333333</v>
       </c>
       <c r="H2">
-        <v>19.222823</v>
+        <v>23.924836</v>
       </c>
       <c r="I2">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="J2">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N2">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q2">
-        <v>3.963780276507555</v>
+        <v>2.680033545568889</v>
       </c>
       <c r="R2">
-        <v>35.67402248856799</v>
+        <v>24.12030191012</v>
       </c>
       <c r="S2">
-        <v>0.0005842379880054003</v>
+        <v>0.0001929539076096539</v>
       </c>
       <c r="T2">
-        <v>0.0005842379880054003</v>
+        <v>0.0001929539076096539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.407607666666666</v>
+        <v>7.974945333333333</v>
       </c>
       <c r="H3">
-        <v>19.222823</v>
+        <v>23.924836</v>
       </c>
       <c r="I3">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="J3">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P3">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q3">
-        <v>14.98497225663533</v>
+        <v>18.65038260533067</v>
       </c>
       <c r="R3">
-        <v>134.864750309718</v>
+        <v>167.853443447976</v>
       </c>
       <c r="S3">
-        <v>0.002208697110034344</v>
+        <v>0.001342768342606616</v>
       </c>
       <c r="T3">
-        <v>0.002208697110034344</v>
+        <v>0.001342768342606616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.407607666666666</v>
+        <v>7.974945333333333</v>
       </c>
       <c r="H4">
-        <v>19.222823</v>
+        <v>23.924836</v>
       </c>
       <c r="I4">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="J4">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N4">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q4">
-        <v>51.16217349592056</v>
+        <v>147.4716204613254</v>
       </c>
       <c r="R4">
-        <v>460.459561463285</v>
+        <v>1327.244584151928</v>
       </c>
       <c r="S4">
-        <v>0.007541004601692096</v>
+        <v>0.01061748852979389</v>
       </c>
       <c r="T4">
-        <v>0.007541004601692096</v>
+        <v>0.01061748852979389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.407607666666666</v>
+        <v>7.974945333333333</v>
       </c>
       <c r="H5">
-        <v>19.222823</v>
+        <v>23.924836</v>
       </c>
       <c r="I5">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="J5">
-        <v>0.01049006948643881</v>
+        <v>0.01228328074175765</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N5">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O5">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P5">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q5">
-        <v>1.059267253807333</v>
+        <v>1.806606899401778</v>
       </c>
       <c r="R5">
-        <v>9.533405284265999</v>
+        <v>16.259462094616</v>
       </c>
       <c r="S5">
-        <v>0.0001561297867069657</v>
+        <v>0.0001300699617474895</v>
       </c>
       <c r="T5">
-        <v>0.0001561297867069657</v>
+        <v>0.0001300699617474894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1716.450683</v>
       </c>
       <c r="I6">
-        <v>0.9366827616690507</v>
+        <v>0.881245147037608</v>
       </c>
       <c r="J6">
-        <v>0.9366827616690508</v>
+        <v>0.8812451470376081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N6">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q6">
-        <v>353.9351823024809</v>
+        <v>192.2748983422345</v>
       </c>
       <c r="R6">
-        <v>3185.416640722328</v>
+        <v>1730.47408508011</v>
       </c>
       <c r="S6">
-        <v>0.05216797207914858</v>
+        <v>0.01384318231080495</v>
       </c>
       <c r="T6">
-        <v>0.05216797207914859</v>
+        <v>0.01384318231080495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1716.450683</v>
       </c>
       <c r="I7">
-        <v>0.9366827616690507</v>
+        <v>0.881245147037608</v>
       </c>
       <c r="J7">
-        <v>0.9366827616690508</v>
+        <v>0.8812451470376081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P7">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q7">
         <v>1338.043109726275</v>
@@ -883,10 +883,10 @@
         <v>12042.38798753648</v>
       </c>
       <c r="S7">
-        <v>0.1972197144539372</v>
+        <v>0.09633485632996207</v>
       </c>
       <c r="T7">
-        <v>0.1972197144539372</v>
+        <v>0.09633485632996207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1716.450683</v>
       </c>
       <c r="I8">
-        <v>0.9366827616690507</v>
+        <v>0.881245147037608</v>
       </c>
       <c r="J8">
-        <v>0.9366827616690508</v>
+        <v>0.8812451470376081</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N8">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q8">
-        <v>4568.389754243553</v>
+        <v>10580.12534188149</v>
       </c>
       <c r="R8">
-        <v>41115.50778819199</v>
+        <v>95221.12807693344</v>
       </c>
       <c r="S8">
-        <v>0.6733538824698402</v>
+        <v>0.7617354383833345</v>
       </c>
       <c r="T8">
-        <v>0.6733538824698403</v>
+        <v>0.7617354383833346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1716.450683</v>
       </c>
       <c r="I9">
-        <v>0.9366827616690507</v>
+        <v>0.881245147037608</v>
       </c>
       <c r="J9">
-        <v>0.9366827616690508</v>
+        <v>0.8812451470376081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N9">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O9">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P9">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q9">
-        <v>94.58444273648732</v>
+        <v>129.6122425412109</v>
       </c>
       <c r="R9">
-        <v>851.259984628386</v>
+        <v>1166.510182870898</v>
       </c>
       <c r="S9">
-        <v>0.01394119266612482</v>
+        <v>0.009331670013506557</v>
       </c>
       <c r="T9">
-        <v>0.01394119266612483</v>
+        <v>0.009331670013506557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.91218566666667</v>
+        <v>68.85358966666666</v>
       </c>
       <c r="H10">
-        <v>95.736557</v>
+        <v>206.560769</v>
       </c>
       <c r="I10">
-        <v>0.05224431059488034</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="J10">
-        <v>0.05224431059488035</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N10">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q10">
-        <v>19.74104825172356</v>
+        <v>23.13870783141444</v>
       </c>
       <c r="R10">
-        <v>177.669434265512</v>
+        <v>208.24837048273</v>
       </c>
       <c r="S10">
-        <v>0.002909714844705397</v>
+        <v>0.001665913510855626</v>
       </c>
       <c r="T10">
-        <v>0.002909714844705397</v>
+        <v>0.001665913510855626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.91218566666667</v>
+        <v>68.85358966666666</v>
       </c>
       <c r="H11">
-        <v>95.736557</v>
+        <v>206.560769</v>
       </c>
       <c r="I11">
-        <v>0.05224431059488034</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="J11">
-        <v>0.05224431059488035</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P11">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q11">
-        <v>74.63053946815134</v>
+        <v>161.0225195734393</v>
       </c>
       <c r="R11">
-        <v>671.674855213362</v>
+        <v>1449.202676160954</v>
       </c>
       <c r="S11">
-        <v>0.01100010423914002</v>
+        <v>0.01159311024901814</v>
       </c>
       <c r="T11">
-        <v>0.01100010423914002</v>
+        <v>0.01159311024901814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.91218566666667</v>
+        <v>68.85358966666666</v>
       </c>
       <c r="H12">
-        <v>95.736557</v>
+        <v>206.560769</v>
       </c>
       <c r="I12">
-        <v>0.05224431059488034</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="J12">
-        <v>0.05224431059488035</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N12">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q12">
-        <v>254.8059844870906</v>
+        <v>1273.231353734985</v>
       </c>
       <c r="R12">
-        <v>2293.253860383815</v>
+        <v>11459.08218361486</v>
       </c>
       <c r="S12">
-        <v>0.03755690914321781</v>
+        <v>0.09166861564120668</v>
       </c>
       <c r="T12">
-        <v>0.03755690914321782</v>
+        <v>0.09166861564120668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.91218566666667</v>
+        <v>68.85358966666666</v>
       </c>
       <c r="H13">
-        <v>95.736557</v>
+        <v>206.560769</v>
       </c>
       <c r="I13">
-        <v>0.05224431059488034</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="J13">
-        <v>0.05224431059488035</v>
+        <v>0.1060506293903268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N13">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P13">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q13">
-        <v>5.275531061299334</v>
+        <v>15.59777088633489</v>
       </c>
       <c r="R13">
-        <v>47.479779551694</v>
+        <v>140.379937977014</v>
       </c>
       <c r="S13">
-        <v>0.0007775823678171132</v>
+        <v>0.001122989989246405</v>
       </c>
       <c r="T13">
-        <v>0.0007775823678171134</v>
+        <v>0.001122989989246405</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.356025</v>
+        <v>0.273298</v>
       </c>
       <c r="H14">
-        <v>1.068075</v>
+        <v>0.8198939999999999</v>
       </c>
       <c r="I14">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="J14">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N14">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q14">
-        <v>0.2202389638</v>
+        <v>0.09184361488666666</v>
       </c>
       <c r="R14">
-        <v>1.9821506742</v>
+        <v>0.8265925339799999</v>
       </c>
       <c r="S14">
-        <v>3.246193283051444E-05</v>
+        <v>6.612448717546469E-06</v>
       </c>
       <c r="T14">
-        <v>3.246193283051444E-05</v>
+        <v>6.612448717546468E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.356025</v>
+        <v>0.273298</v>
       </c>
       <c r="H15">
-        <v>1.068075</v>
+        <v>0.8198939999999999</v>
       </c>
       <c r="I15">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="J15">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P15">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q15">
-        <v>0.83260789755</v>
+        <v>0.6391407153559999</v>
       </c>
       <c r="R15">
-        <v>7.493471077949999</v>
+        <v>5.752266438203999</v>
       </c>
       <c r="S15">
-        <v>0.0001227215256468798</v>
+        <v>4.601610257613089E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001227215256468798</v>
+        <v>4.601610257613088E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.356025</v>
+        <v>0.273298</v>
       </c>
       <c r="H16">
-        <v>1.068075</v>
+        <v>0.8198939999999999</v>
       </c>
       <c r="I16">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="J16">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N16">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q16">
-        <v>2.842716621625</v>
+        <v>5.053789994068</v>
       </c>
       <c r="R16">
-        <v>25.584449594625</v>
+        <v>45.484109946612</v>
       </c>
       <c r="S16">
-        <v>0.000418999773860077</v>
+        <v>0.0003638568364960507</v>
       </c>
       <c r="T16">
-        <v>0.000418999773860077</v>
+        <v>0.0003638568364960507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.356025</v>
+        <v>0.273298</v>
       </c>
       <c r="H17">
-        <v>1.068075</v>
+        <v>0.8198939999999999</v>
       </c>
       <c r="I17">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="J17">
-        <v>0.0005828582496300428</v>
+        <v>0.0004209428303074948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N17">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O17">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P17">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q17">
-        <v>0.05885591685</v>
+        <v>0.06191165352933332</v>
       </c>
       <c r="R17">
-        <v>0.52970325165</v>
+        <v>0.5572048817639998</v>
       </c>
       <c r="S17">
-        <v>8.675017292571564E-06</v>
+        <v>4.457442517766731E-06</v>
       </c>
       <c r="T17">
-        <v>8.675017292571564E-06</v>
+        <v>4.457442517766731E-06</v>
       </c>
     </row>
   </sheetData>
